--- a/FitnessData/dynamic13/pso/analysis_1s.xlsx
+++ b/FitnessData/dynamic13/pso/analysis_1s.xlsx
@@ -552,144 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>226.44</v>
+        <v>213.2</v>
       </c>
       <c r="B2" t="n">
-        <v>211.99</v>
+        <v>210.82</v>
       </c>
       <c r="C2" t="n">
-        <v>209.66</v>
+        <v>199.36</v>
       </c>
       <c r="D2" t="n">
-        <v>205.75</v>
+        <v>205.61</v>
       </c>
       <c r="E2" t="n">
-        <v>225.64</v>
+        <v>215.5</v>
       </c>
       <c r="F2" t="n">
-        <v>212.62</v>
+        <v>221.89</v>
       </c>
       <c r="G2" t="n">
-        <v>211.32</v>
+        <v>208.87</v>
       </c>
       <c r="H2" t="n">
-        <v>227.43</v>
+        <v>200.88</v>
       </c>
       <c r="I2" t="n">
-        <v>211.68</v>
+        <v>186.92</v>
       </c>
       <c r="J2" t="n">
-        <v>216.2</v>
+        <v>216.11</v>
       </c>
       <c r="K2" t="n">
-        <v>225.51</v>
+        <v>204.08</v>
       </c>
       <c r="L2" t="n">
-        <v>214.52</v>
+        <v>214.03</v>
       </c>
       <c r="M2" t="n">
-        <v>218.02</v>
+        <v>199.67</v>
       </c>
       <c r="N2" t="n">
-        <v>205.68</v>
+        <v>192.5</v>
       </c>
       <c r="O2" t="n">
-        <v>197.43</v>
+        <v>206.38</v>
       </c>
       <c r="P2" t="n">
-        <v>221.9</v>
+        <v>202.71</v>
       </c>
       <c r="Q2" t="n">
-        <v>221.48</v>
+        <v>202.5</v>
       </c>
       <c r="R2" t="n">
-        <v>212.87</v>
+        <v>203.25</v>
       </c>
       <c r="S2" t="n">
-        <v>212.18</v>
+        <v>199.25</v>
       </c>
       <c r="T2" t="n">
-        <v>227.66</v>
+        <v>198.77</v>
       </c>
       <c r="U2" t="n">
-        <v>197.43</v>
+        <v>186.92</v>
       </c>
       <c r="V2" t="n">
-        <v>215.799</v>
+        <v>205.1150000000001</v>
       </c>
       <c r="W2" t="n">
-        <v>8.329942755853093</v>
+        <v>8.47970983863059</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>461.78</v>
+        <v>464.18</v>
       </c>
       <c r="B3" t="n">
-        <v>420</v>
+        <v>432.82</v>
       </c>
       <c r="C3" t="n">
-        <v>424.38</v>
+        <v>416.48</v>
       </c>
       <c r="D3" t="n">
-        <v>428.32</v>
+        <v>419.88</v>
       </c>
       <c r="E3" t="n">
-        <v>439.58</v>
+        <v>417.58</v>
       </c>
       <c r="F3" t="n">
-        <v>436.72</v>
+        <v>450.04</v>
       </c>
       <c r="G3" t="n">
-        <v>475.64</v>
+        <v>440.48</v>
       </c>
       <c r="H3" t="n">
-        <v>428.56</v>
+        <v>447.14</v>
       </c>
       <c r="I3" t="n">
-        <v>433.82</v>
+        <v>439.74</v>
       </c>
       <c r="J3" t="n">
-        <v>469.06</v>
+        <v>439.62</v>
       </c>
       <c r="K3" t="n">
-        <v>436.88</v>
+        <v>405.66</v>
       </c>
       <c r="L3" t="n">
-        <v>429.42</v>
+        <v>465.22</v>
       </c>
       <c r="M3" t="n">
-        <v>426.94</v>
+        <v>447.92</v>
       </c>
       <c r="N3" t="n">
-        <v>446.04</v>
+        <v>382.78</v>
       </c>
       <c r="O3" t="n">
-        <v>454.66</v>
+        <v>449.8</v>
       </c>
       <c r="P3" t="n">
-        <v>414.88</v>
+        <v>428.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>446.82</v>
+        <v>455.22</v>
       </c>
       <c r="R3" t="n">
-        <v>430.14</v>
+        <v>447.78</v>
       </c>
       <c r="S3" t="n">
-        <v>446.1</v>
+        <v>422.4</v>
       </c>
       <c r="T3" t="n">
-        <v>446.52</v>
+        <v>418.82</v>
       </c>
       <c r="U3" t="n">
-        <v>414.88</v>
+        <v>382.78</v>
       </c>
       <c r="V3" t="n">
-        <v>439.813</v>
+        <v>434.609</v>
       </c>
       <c r="W3" t="n">
-        <v>16.13572078536183</v>
+        <v>20.64239936584281</v>
       </c>
     </row>
   </sheetData>
